--- a/ДенежныеТранзакции.xlsx
+++ b/ДенежныеТранзакции.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Hebut3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Hebut6" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Hebut7" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hebut8" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -1161,9 +1162,78 @@
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45231.69504418749</v>
+        <v>45231.69504418982</v>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>Д</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dfdfd</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>45238.96586283565</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dfdfd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>45238.96594755718</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Д</t>
         </is>
